--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1465918.57122956</v>
+        <v>-1467868.79705812</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>169.7872342689739</v>
       </c>
       <c r="C2" t="n">
-        <v>234.3011745928592</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.1499727583775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>112.984925538714</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>144.0731271501069</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>205.0849044383768</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>192.2399500049038</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.30447282260442</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.70611463921604</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.96920957569946</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>293.2901444050037</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>198.1170787177772</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>74.53436060286496</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.95296002057435</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583908</v>
       </c>
       <c r="U13" t="n">
-        <v>217.1341457645933</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.8085950301004</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>63.07341015175815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>75.42907708199131</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>161.6857440212297</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.18683050884954</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>210.6302519749051</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>244.8722240747094</v>
+        <v>281.8033094270177</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522972</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
         <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857224</v>
       </c>
       <c r="E28" t="n">
         <v>78.30207251692849</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789601</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,7 +3007,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941877</v>
       </c>
       <c r="W31" t="n">
         <v>218.3911082069503</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.550419308994</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1266.882566184894</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.882566184894</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1879.420274060198</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1879.420274060198</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>1879.420274060198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.550419308994</v>
+        <v>1489.280942084386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,7 +4428,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9725150767609</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9725150767609</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1077.074462393506</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.074462393506</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1077.074462393506</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1077.074462393506</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>666.0885576038986</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>248.1247495020855</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2657.447603318622</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1463.674302457628</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>530.3944877309076</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>530.3944877309076</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>530.3944877309076</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>530.3944877309076</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>530.3944877309076</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.3944877309076</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.063616086466</v>
+        <v>1683.321707331113</v>
       </c>
       <c r="C8" t="n">
-        <v>1409.101099146055</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D8" t="n">
-        <v>1050.835400539304</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>665.0471479410601</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>254.0612431514525</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.202948062278</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.063616086466</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X10" t="n">
-        <v>184.027325963587</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>592.8217113586354</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>727.7227988731054</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>727.7227988731054</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>727.7227988731054</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684848</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909232</v>
       </c>
       <c r="U13" t="n">
-        <v>855.8834252987245</v>
+        <v>1164.055751909232</v>
       </c>
       <c r="V13" t="n">
-        <v>855.8834252987245</v>
+        <v>909.3712637033451</v>
       </c>
       <c r="W13" t="n">
-        <v>855.8834252987245</v>
+        <v>909.3712637033451</v>
       </c>
       <c r="X13" t="n">
-        <v>855.8834252987245</v>
+        <v>909.3712637033451</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.8834252987245</v>
+        <v>909.3712637033451</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,16 +5303,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.6648329070714</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>108.134864217963</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>108.134864217963</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>835.082002944032</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>545.6648329070714</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5498,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5522,40 +5522,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.4609007520348</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C19" t="n">
-        <v>323.5247178241279</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4080784117922</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>173.4080784117922</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>173.4080784117922</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>173.4080784117922</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>173.4080784117922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1224.52223376495</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500522</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4609007520348</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="Y19" t="n">
-        <v>492.4609007520348</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.2185435662825</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>874.927113122792</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>874.927113122792</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X22" t="n">
-        <v>874.927113122792</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.1345339792618</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.65057958991</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V25" t="n">
-        <v>796.9660913840228</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W25" t="n">
-        <v>796.9660913840228</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X25" t="n">
-        <v>796.9660913840228</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>576.1735122404926</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506724</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229674</v>
@@ -7552,34 +7552,34 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>182.0340742867954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.9466073945067</v>
       </c>
       <c r="C2" t="n">
-        <v>130.9717171781484</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22747,28 +22747,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.6247509506604</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646573</v>
+        <v>93.48100262599482</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>69.10320663398403</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>155.6849734332772</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>189.0642331720699</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.99016838228069</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>59.86181703715951</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.6451496730878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>15.07940341413206</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>41.36512832386791</v>
+        <v>4.43404297155962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-4.141132009537592e-13</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1267681.424025524</v>
+        <v>1267681.424025523</v>
       </c>
     </row>
     <row r="3">
@@ -26320,7 +26320,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="F2" t="n">
         <v>97757.26493442719</v>
@@ -26332,7 +26332,7 @@
         <v>97757.26493442721</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="O2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330356</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121444.2179016485</v>
+        <v>121444.2179016484</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,19 +26424,19 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007527</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007524</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007504</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007498</v>
       </c>
       <c r="J4" t="n">
         <v>30335.51889732797</v>
@@ -26448,13 +26448,13 @@
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-697438.5971418931</v>
+        <v>-697554.5500057996</v>
       </c>
       <c r="C6" t="n">
         <v>-128145.9055462949</v>
@@ -26528,19 +26528,19 @@
         <v>-128145.9055462949</v>
       </c>
       <c r="E6" t="n">
-        <v>-527306.8291471928</v>
+        <v>-527404.288273165</v>
       </c>
       <c r="F6" t="n">
-        <v>-2146.792670296956</v>
+        <v>-2244.251796269077</v>
       </c>
       <c r="G6" t="n">
-        <v>-2146.792670296898</v>
+        <v>-2244.251796269106</v>
       </c>
       <c r="H6" t="n">
-        <v>-2146.792670296942</v>
+        <v>-2244.251796269077</v>
       </c>
       <c r="I6" t="n">
-        <v>-2146.792670296927</v>
+        <v>-2244.251796269048</v>
       </c>
       <c r="J6" t="n">
         <v>-256349.1347806233</v>
@@ -26552,16 +26552,16 @@
         <v>-25420.40348431781</v>
       </c>
       <c r="M6" t="n">
-        <v>-160221.4187181549</v>
+        <v>-160221.418718155</v>
       </c>
       <c r="N6" t="n">
         <v>-25420.40348431779</v>
       </c>
       <c r="O6" t="n">
-        <v>-79925.9155880303</v>
+        <v>-79925.91558803039</v>
       </c>
       <c r="P6" t="n">
-        <v>-25420.40348431779</v>
+        <v>-25420.40348431782</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964068</v>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.780397313884237</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>214.7673329314209</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>23.17369394852091</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>131.6828227594533</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>177.1438475350534</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>156.5407064594118</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>205.0658958823848</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>61.39289721567923</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>215.6670913030178</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.65046194477887</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>150.5007448552193</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>332.6095128747346</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
